--- a/replying_example.xlsx
+++ b/replying_example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/linchunho/Developer/aws-line-business-card/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98DD8498-BC54-BC49-8B6D-8B6B3D7B5B69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92A39A6E-2FA1-2748-9F8F-8D5DB8946C00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{D55B5DE5-8CC8-FA43-A44A-1EC28E00D7B0}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{D55B5DE5-8CC8-FA43-A44A-1EC28E00D7B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>LINE BOT 關鍵字</t>
   </si>
@@ -143,6 +143,21 @@
   </si>
   <si>
     <t>我想了解 AWS LINE BOT 開發團隊 4</t>
+  </si>
+  <si>
+    <t>設定加入好友訊息</t>
+  </si>
+  <si>
+    <t>Hi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HiHi </t>
+  </si>
+  <si>
+    <t>HiHiHi</t>
+  </si>
+  <si>
+    <t>HiHiHiHi</t>
   </si>
 </sst>
 </file>
@@ -500,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEED68EE-8F55-6B45-9B4F-290EFB89BAB9}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -535,103 +550,120 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>20</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>33</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D8" t="s">
         <v>34</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E8" t="s">
         <v>35</v>
       </c>
     </row>

--- a/replying_example.xlsx
+++ b/replying_example.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="40">
   <si>
     <t>LINE BOT 關鍵字</t>
   </si>
@@ -44,48 +44,16 @@
     <t>設定加入好友訊息</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <rFont val="PMingLiu"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t>嗨！</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t>👋</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="PMingLiu"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve"> 歡迎加入 AWS Educate 校園大使的 Line bot！
-在這裡，我會與你分享 AWS 的最新資訊、實用技巧、活動消息，以及 AWS Educate 的精彩內容。如果你對雲端運算、技術創新有興趣，那你來對地方啦！有什麼問題都歡迎隨時問我，我會盡力提供協助。一起來開啟雲端科技之旅吧！</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t>💡✨</t>
-    </r>
+    <t>嗨！ {Nickname}您好！👋 我們是第五屆 AWS Educate 校園大使</t>
   </si>
   <si>
-    <t>哈囉！歡迎加入 AWS Educate 校園大使的 Line bot！我是你的 AWS 小幫手，將帶你探索 Amazon Web Services 的無限可能。AWS 不僅是全球最大的雲端服務提供商，更是科技創新的引領者。我將與你分享 AWS 的最新消息、實用技巧，還有 AWS Educate 專屬的學習資源。有任何問題或想知道更多，隨時向我發問吧！一同啟程，體驗 AWS 的魅力吧！🚀💻</t>
+    <t>{AccountName} 是你的 AWS 小幫手，將帶你探索 Amazon Web Services 的無限可能。</t>
   </si>
   <si>
-    <t>嗨！歡迎來到 AWS Educate 校園大使的 Line bot！我是你的 AWS 智慧小幫手，將陪你一同踏上雲端運算的冒險之旅。AWS 提供豐富多元的雲端服務，從運算到儲存，應有盡有。這裡我將與你分享 AWS 的最新資訊、技巧，以及 AWS Educate 的專屬學習機會。如果你對雲端技術充滿好奇，就讓我們一同開拓未知領域吧！🌐🔍</t>
+    <t>將陪你一同踏上雲端運算的冒險之旅。AWS 提供豐富多元的雲端服務，從運算到儲存，應有盡有。</t>
   </si>
   <si>
-    <t>你好！歡迎來到 AWS Educate 校園大使的 Line bot！我是你的 AWS 導覽員，將帶你遨遊在 Amazon Web Services 的世界。AWS 不僅提供強大的雲端運算平台，還為你提供了無限的創新可能。我會與你分享 AWS 的最新動態、技術見解，以及 AWS Educate 獨家的學習體驗。有什麼問題都歡迎詢問，讓我們一同迎接科技的挑戰吧！🌟💡</t>
+    <t>我會與你分享 AWS 的最新動態、技術見解，以及 AWS Educate 獨家的學習體驗，讓我們一同迎接科技的挑戰吧！🌟💡</t>
   </si>
   <si>
     <t>我想知道 AWS 創辦故事</t>
@@ -157,12 +125,6 @@
     <t>我是你的 AWS 小幫手，將帶你探索 Amazon Web Services 的無限可能。</t>
   </si>
   <si>
-    <t>將陪你一同踏上雲端運算的冒險之旅。AWS 提供豐富多元的雲端服務，從運算到儲存，應有盡有。</t>
-  </si>
-  <si>
-    <t>我會與你分享 AWS 的最新動態、技術見解，以及 AWS Educate 獨家的學習體驗，讓我們一同迎接科技的挑戰吧！🌟💡</t>
-  </si>
-  <si>
     <t>公司創辦的故事</t>
   </si>
   <si>
@@ -230,11 +192,11 @@
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -354,7 +316,7 @@
     <xdr:ext cx="180975" cy="190500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image5.jpg"/>
+        <xdr:cNvPr id="0" name="image3.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -382,7 +344,7 @@
     <xdr:ext cx="333375" cy="190500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png"/>
+        <xdr:cNvPr id="0" name="image4.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -466,7 +428,7 @@
     <xdr:ext cx="247650" cy="190500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image4.jpg"/>
+        <xdr:cNvPr id="0" name="image5.jpg"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -830,229 +792,229 @@
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="2"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="3"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C5" s="2"/>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="3"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>30</v>
       </c>
       <c r="F6" s="2"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
-      <c r="X6" s="3"/>
-      <c r="Y6" s="3"/>
-      <c r="Z6" s="3"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>35</v>
+      <c r="D7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="F7" s="2"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
-      <c r="Y7" s="3"/>
-      <c r="Z7" s="3"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>
@@ -2087,184 +2049,184 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="s">
-        <v>36</v>
+      <c r="A2" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4"/>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="s">
-        <v>37</v>
+      <c r="A3" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="s">
-        <v>38</v>
+      <c r="A4" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="3"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4"/>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="s">
-        <v>39</v>
+      <c r="A5" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="3"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4"/>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="s">
-        <v>40</v>
+      <c r="A6" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
-      <c r="X6" s="3"/>
-      <c r="Y6" s="3"/>
-      <c r="Z6" s="3"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4"/>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="s">
-        <v>41</v>
+      <c r="A7" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
-      <c r="Y7" s="3"/>
-      <c r="Z7" s="3"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>
@@ -3299,184 +3261,184 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="s">
-        <v>36</v>
+      <c r="A2" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4"/>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="s">
-        <v>37</v>
+      <c r="A3" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="s">
-        <v>38</v>
+      <c r="A4" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="3"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4"/>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="s">
-        <v>39</v>
+      <c r="A5" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="3"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4"/>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="s">
-        <v>40</v>
+      <c r="A6" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
-      <c r="X6" s="3"/>
-      <c r="Y6" s="3"/>
-      <c r="Z6" s="3"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4"/>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="s">
-        <v>41</v>
+      <c r="A7" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
-      <c r="Y7" s="3"/>
-      <c r="Z7" s="3"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>
@@ -4511,184 +4473,184 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="s">
-        <v>36</v>
+      <c r="A2" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4"/>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="s">
-        <v>37</v>
+      <c r="A3" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="s">
-        <v>38</v>
+      <c r="A4" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="3"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4"/>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="s">
-        <v>39</v>
+      <c r="A5" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="3"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4"/>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="s">
-        <v>40</v>
+      <c r="A6" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
-      <c r="X6" s="3"/>
-      <c r="Y6" s="3"/>
-      <c r="Z6" s="3"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4"/>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="s">
-        <v>41</v>
+      <c r="A7" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
-      <c r="Y7" s="3"/>
-      <c r="Z7" s="3"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>
@@ -5723,184 +5685,184 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="s">
-        <v>36</v>
+      <c r="A2" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4"/>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="s">
-        <v>37</v>
+      <c r="A3" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="s">
-        <v>38</v>
+      <c r="A4" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="3"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4"/>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="s">
-        <v>39</v>
+      <c r="A5" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="3"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4"/>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="s">
-        <v>40</v>
+      <c r="A6" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
-      <c r="X6" s="3"/>
-      <c r="Y6" s="3"/>
-      <c r="Z6" s="3"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4"/>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="s">
-        <v>41</v>
+      <c r="A7" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
-      <c r="Y7" s="3"/>
-      <c r="Z7" s="3"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>
@@ -6935,184 +6897,184 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="s">
-        <v>36</v>
+      <c r="A2" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4"/>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="s">
-        <v>37</v>
+      <c r="A3" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="s">
-        <v>38</v>
+      <c r="A4" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="3"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4"/>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="s">
-        <v>39</v>
+      <c r="A5" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="3"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4"/>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="s">
-        <v>40</v>
+      <c r="A6" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
-      <c r="X6" s="3"/>
-      <c r="Y6" s="3"/>
-      <c r="Z6" s="3"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4"/>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="s">
-        <v>41</v>
+      <c r="A7" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
-      <c r="Y7" s="3"/>
-      <c r="Z7" s="3"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>
